--- a/系统组/需求改动之后的数据库表结构.xlsx
+++ b/系统组/需求改动之后的数据库表结构.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +18,546 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
+  <si>
+    <t>巴枪条码变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_old_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_new_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_change_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_receive_man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领枪人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt_pda_change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司BQQ登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt_bqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_net_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_net_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_register_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_service_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属网点条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属网点名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网点IMO登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_register_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_service_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_service_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMO账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMO密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt_net_imo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>child_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_child_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送修坂田巴枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt_bq_reqair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_sim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_lid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无sim卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无后盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +565,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +613,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +921,746 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>